--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.171099999999991</v>
+        <v>6.048599999999989</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.41259999999997</v>
+        <v>-20.37649999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.624699999999998</v>
+        <v>5.490799999999996</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.91540000000001</v>
+        <v>-22.97790000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.13000000000002</v>
+        <v>-22.11690000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.8808</v>
+        <v>-13.34820000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
